--- a/biology/Botanique/Hélianthe/Hélianthe.xlsx
+++ b/biology/Botanique/Hélianthe/Hélianthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthus
 Le genre Helianthus (les hélianthes ou hélianthi) regroupe 66 espèces dont 14 hybrides, de la famille des Astéracées (ou Composées) à grands capitules jaunes. 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Helianthus vient du grec hêlios, « soleil », et anthos, « fleur », les pétales jaunes de cette « fleur de soleil » rappelant l'astre du jour[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Helianthus vient du grec hêlios, « soleil », et anthos, « fleur », les pétales jaunes de cette « fleur de soleil » rappelant l'astre du jour.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Introductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des hélianthes ont été intentionnellement ou accidentellement introduits dans de nombreux pays, notamment en Europe, en Amérique du Sud et jusqu'en Australie (Kane et al., 2013).
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les habitats des hélianthes sont très diversifiés : Si la plupart des espèces d' Helianthus sauvages vivent dans des milieux ouverts (des prairies aux déserts), quelques espèces sont au contraire adaptées au milieu forestier (ex : Helianthus microcephalus ou Helianthus radula). Au moins deux espèces vivent dans les zones humides (Helianthus  heterophyllus et Helianthus  paradoxus) [2]. D'autres sont dites  « extrémophiles » supportant les dures conditions (vent, soleil, sol pauvre) du milieu dunaire (Helianthus anomalus et Helianthus neglectus) et même un milieu saumâtre (Helianthus paradoxus) ou les milieux très arides (Helianthus deserticola). 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitats des hélianthes sont très diversifiés : Si la plupart des espèces d' Helianthus sauvages vivent dans des milieux ouverts (des prairies aux déserts), quelques espèces sont au contraire adaptées au milieu forestier (ex : Helianthus microcephalus ou Helianthus radula). Au moins deux espèces vivent dans les zones humides (Helianthus  heterophyllus et Helianthus  paradoxus) . D'autres sont dites  « extrémophiles » supportant les dures conditions (vent, soleil, sol pauvre) du milieu dunaire (Helianthus anomalus et Helianthus neglectus) et même un milieu saumâtre (Helianthus paradoxus) ou les milieux très arides (Helianthus deserticola). 
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La diversité génétique marquée dans ce genre botanique, liée à des milieux de vie très différents (arides et salinisés notamment) intéresse le génie génétique et l'agroindustrie qui espère pouvoir rendre les variétés cultivées aptes (amélioration variétale) à produire de l'huile de tournesol, dans le contexte du dérèglement climatique. Cependant, note Pauline Duriez « il faut prendre en compte le fait que ce sont souvent des caractères génétiques complexes »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité génétique marquée dans ce genre botanique, liée à des milieux de vie très différents (arides et salinisés notamment) intéresse le génie génétique et l'agroindustrie qui espère pouvoir rendre les variétés cultivées aptes (amélioration variétale) à produire de l'huile de tournesol, dans le contexte du dérèglement climatique. Cependant, note Pauline Duriez « il faut prendre en compte le fait que ce sont souvent des caractères génétiques complexes ».
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +660,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les graines du tournesol se consomment et permettent de produire de l'huile.
-Les tubercules des topinambours et ceux des hélianthis se consomment crus ou cuits[4].</t>
+Les tubercules des topinambours et ceux des hélianthis se consomment crus ou cuits.</t>
         </is>
       </c>
     </row>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Principales espèces en France</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Helianthus annuus L., le tournesol
 Helianthus debilis Nutt.
@@ -691,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H%C3%A9lianthe</t>
+          <t>Hélianthe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +733,9 @@
           <t>Espèces selon ITIS[5]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Helianthus agrestis Pollard
 Helianthus agustifolius Linnaeus
